--- a/households.xlsx
+++ b/households.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Kibet\Desktop\Capstone Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D32A3A54-08CA-4326-9897-9EBAA3D6EF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C37EFB-90D3-490E-A24C-974B8B631C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0C660DA-67F8-4C4D-80E1-3C485DAF23C9}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Kilifi</t>
   </si>
   <si>
-    <t>TanaRiver</t>
-  </si>
-  <si>
     <t>Lamu</t>
   </si>
   <si>
@@ -106,18 +103,9 @@
     <t>Turkana</t>
   </si>
   <si>
-    <t>WestPokot</t>
-  </si>
-  <si>
     <t>Samburu</t>
   </si>
   <si>
-    <t>TransNzoia</t>
-  </si>
-  <si>
-    <t>UasinGishu</t>
-  </si>
-  <si>
     <t>Elgeyo/Marakwet</t>
   </si>
   <si>
@@ -163,9 +151,6 @@
     <t>Kisumu</t>
   </si>
   <si>
-    <t>HomaBay</t>
-  </si>
-  <si>
     <t>Migori</t>
   </si>
   <si>
@@ -175,7 +160,22 @@
     <t>Nyamira</t>
   </si>
   <si>
-    <t>NairobiCity</t>
+    <t>Tana River</t>
+  </si>
+  <si>
+    <t>West Pokot</t>
+  </si>
+  <si>
+    <t>Trans Nzoia</t>
+  </si>
+  <si>
+    <t>Uasin Gishu</t>
+  </si>
+  <si>
+    <t>Homa Bay</t>
+  </si>
+  <si>
+    <t>Nairobi City</t>
   </si>
 </sst>
 </file>
@@ -1038,7 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D6867F-7CC8-4C7B-9714-6728725DA365}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -1114,7 +1116,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>314710</v>
@@ -1128,7 +1130,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>141909</v>
@@ -1142,7 +1144,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>335747</v>
@@ -1156,7 +1158,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>835482</v>
@@ -1170,7 +1172,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>775302</v>
@@ -1184,7 +1186,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>862079</v>
@@ -1198,7 +1200,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>447150</v>
@@ -1212,7 +1214,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>267997</v>
@@ -1226,7 +1228,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1535635</v>
@@ -1240,7 +1242,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>391303</v>
@@ -1254,7 +1256,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>604769</v>
@@ -1268,7 +1270,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1130134</v>
@@ -1282,7 +1284,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1414022</v>
@@ -1296,7 +1298,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>977015</v>
@@ -1310,7 +1312,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>636002</v>
@@ -1324,7 +1326,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>752695</v>
@@ -1338,7 +1340,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>605630</v>
@@ -1352,7 +1354,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>1053059</v>
@@ -1366,7 +1368,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2402834</v>
@@ -1380,7 +1382,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>922210</v>
@@ -1394,7 +1396,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>618867</v>
@@ -1408,7 +1410,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>307957</v>
@@ -1422,7 +1424,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>985333</v>
@@ -1436,7 +1438,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>1152671</v>
@@ -1450,7 +1452,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>453403</v>
@@ -1464,7 +1466,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>883634</v>
@@ -1478,7 +1480,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>662760</v>
@@ -1492,7 +1494,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>513879</v>
@@ -1506,7 +1508,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>2142667</v>
@@ -1520,7 +1522,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1149379</v>
@@ -1534,7 +1536,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1107296</v>
@@ -1548,7 +1550,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>896863</v>
@@ -1562,7 +1564,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>873023</v>
@@ -1576,7 +1578,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1861332</v>
@@ -1590,7 +1592,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>587189</v>
@@ -1604,7 +1606,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1663898</v>
@@ -1618,7 +1620,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>886856</v>
@@ -1632,7 +1634,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>989708</v>
@@ -1646,7 +1648,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1144777</v>
@@ -1660,7 +1662,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1125823</v>
@@ -1674,7 +1676,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>1108950</v>
@@ -1688,7 +1690,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>1260509</v>
@@ -1702,7 +1704,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>603051</v>
